--- a/Configs/DialogData.xlsx
+++ b/Configs/DialogData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>sn</t>
   </si>
@@ -41,12 +41,18 @@
     <t>nextDialog</t>
   </si>
   <si>
+    <t>autoTime</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -59,10 +65,22 @@
     <t>下一对话ID</t>
   </si>
   <si>
+    <t>自动时间（s)</t>
+  </si>
+  <si>
     <t>Lumiere First Dialog</t>
   </si>
   <si>
     <t>Lumiere Second Dialog</t>
+  </si>
+  <si>
+    <t>Lumiere Third Dialog</t>
+  </si>
+  <si>
+    <t>Lumiere Fourth Dialog</t>
+  </si>
+  <si>
+    <t>Lumiere Fifth Dialog</t>
   </si>
 </sst>
 </file>
@@ -993,13 +1011,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
@@ -1008,7 +1026,7 @@
     <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,36 +1039,45 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1058,13 +1085,16 @@
         <v>10001</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>10002</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -1072,10 +1102,64 @@
         <v>10003</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5">
+        <v>10003</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6">
+        <v>10005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>10004</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>10004</v>
+      </c>
+      <c r="B7">
+        <v>10004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>10005</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8">
+        <v>10009</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
         <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/DialogData.xlsx
+++ b/Configs/DialogData.xlsx
@@ -27,23 +27,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>sn</t>
   </si>
   <si>
+    <t>dialogStr</t>
+  </si>
+  <si>
+    <t>speakerType</t>
+  </si>
+  <si>
     <t>character</t>
   </si>
   <si>
-    <t>dialogStr</t>
-  </si>
-  <si>
     <t>nextDialog</t>
   </si>
   <si>
     <t>autoTime</t>
   </si>
   <si>
+    <t>action</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -56,18 +62,24 @@
     <t>ID</t>
   </si>
   <si>
+    <t>对话文本</t>
+  </si>
+  <si>
+    <t>类型 1 chara 2 normal 3 multi</t>
+  </si>
+  <si>
     <t>对话人Id</t>
   </si>
   <si>
-    <t>对话文本</t>
-  </si>
-  <si>
     <t>下一对话ID</t>
   </si>
   <si>
     <t>自动时间（s)</t>
   </si>
   <si>
+    <t>对话触发事件</t>
+  </si>
+  <si>
     <t>Lumiere First Dialog</t>
   </si>
   <si>
@@ -81,6 +93,9 @@
   </si>
   <si>
     <t>Lumiere Fifth Dialog</t>
+  </si>
+  <si>
+    <t>OpenScene,FirstStage</t>
   </si>
 </sst>
 </file>
@@ -1011,22 +1026,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="41.75" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,124 +1058,279 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>10001</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>10001</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>10002</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10002</v>
       </c>
-      <c r="B5">
-        <v>10003</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>10003</v>
       </c>
       <c r="E5">
+        <v>10003</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>10003</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>10005</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>10004</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>10004</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>10004</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>10005</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>10005</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>10009</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8">
+        <v>10006</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="D8">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>10007</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>10008</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>10009</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>10009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>10010</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>10011</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>10011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>10012</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>10012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>5</v>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
